--- a/results/escherichia_coli/Omics_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/escherichia_coli/Omics_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -467,56 +467,56 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.572787067395006e-45</v>
+        <v>1.452634618036325e-86</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5978260869565217</v>
+        <v>0.8100558659217877</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5978260869565217</v>
+        <v>0.8100558659217877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.012739607107833e-24</v>
+        <v>1.434858817307643e-19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6020408163265306</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6020408163265306</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.31481987799851e-21</v>
+        <v>3.346335227566342e-18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5533980582524272</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5533980582524272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.855200043836406e-16</v>
+        <v>3.942829561203017e-16</v>
       </c>
       <c r="D5" t="n">
         <v>0.9545454545454546</v>
@@ -535,463 +535,463 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.035978753635048e-16</v>
+        <v>3.982294370221935e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.660377358490566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.160905266011532e-15</v>
+        <v>6.651247613881624e-16</v>
       </c>
       <c r="D7" t="n">
-        <v>0.88</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.88</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.104591630541722e-15</v>
+        <v>2.815906241230926e-15</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5176470588235295</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5176470588235295</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.164082966389337e-13</v>
+        <v>5.06918259146482e-15</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.692568308341301e-12</v>
+        <v>1.441622135495139e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.5308641975308642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.904803177535671e-12</v>
+        <v>3.208407812016703e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.839457845797087e-11</v>
+        <v>1.29830271605826e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6388888888888888</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6388888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9.229852278521237e-11</v>
+        <v>1.29830271605826e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7307692307692307</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7307692307692307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.291294376522416e-09</v>
+        <v>1.29830271605826e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.73646016861522e-09</v>
+        <v>8.954865538046844e-09</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.75</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.612226328883389e-08</v>
+        <v>1.227537275623023e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.524669083170448e-08</v>
+        <v>3.634639936807074e-08</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.4957099889533e-08</v>
+        <v>7.630342651136007e-08</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.422517481017424e-07</v>
+        <v>5.909000320400791e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.41479315168525e-07</v>
+        <v>1.426125044329209e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.035721311310286e-06</v>
+        <v>2.937296418872397e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.478587039630453e-05</v>
+        <v>6.155177095477477e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2483221476510067</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2483221476510067</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.579721985296867e-05</v>
+        <v>4.748192130928754e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.875</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="E23" t="n">
-        <v>0.875</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001138456590377815</v>
+        <v>9.682072743997205e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.2540322580645161</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.2540322580645161</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001742040448428055</v>
+        <v>0.0001266149795596239</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.005331759258560459</v>
+        <v>0.0005287490121935783</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.005333787626490296</v>
+        <v>0.001040654706206581</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.006817818005346556</v>
+        <v>0.005332470199241743</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01845405058672477</v>
+        <v>0.01384628902753966</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02460809857228354</v>
+        <v>0.02642891510809547</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1010,121 +1010,121 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Metabolite Repair</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02460809857228354</v>
+        <v>0.04146941312376799</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0.2134831460674157</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02523334112777673</v>
+        <v>0.0644064531596793</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.05753954036002273</v>
+        <v>0.1263494662378778</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1186330248994807</v>
+        <v>0.1836379369350184</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1569698408928996</v>
+        <v>0.87335030987488</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.4213156184028357</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1851851851851852</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1132,50 +1132,31 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4812615345992598</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9612987641430827</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Murein Recycling</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1190,7 +1171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1222,7 +1203,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1230,18 +1211,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.735564308695183e-47</v>
+        <v>4.087928447781611e-84</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7988826815642458</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7988826815642458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1249,113 +1230,113 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.526148646663793e-22</v>
+        <v>7.372344155595866e-19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5631067961165048</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5631067961165048</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.322260463904354e-16</v>
+        <v>2.935855029909509e-18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.656436864907362e-15</v>
+        <v>1.160637416374636e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.88</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E5" t="n">
-        <v>0.88</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.035380271134408e-15</v>
+        <v>3.291443635123503e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>0.660377358490566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.558507764815686e-14</v>
+        <v>5.847933119778008e-16</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.009042378943874e-13</v>
+        <v>4.203559197183681e-15</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.625</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1363,45 +1344,45 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.359297220286441e-13</v>
+        <v>4.080507381432659e-13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4941176470588236</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4941176470588236</v>
+        <v>0.5061728395061729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.392716734466816e-12</v>
+        <v>1.188030064050013e-12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.128982185751547e-12</v>
+        <v>1.188030064050013e-12</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1412,178 +1393,178 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.667896458644792e-12</v>
+        <v>1.188030064050013e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.408715641242416e-11</v>
+        <v>1.809345277611251e-11</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.566784318638016e-09</v>
+        <v>8.612483395901914e-11</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.6097560975609756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.520857139393692e-09</v>
+        <v>1.157260004534582e-08</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.947883508481925e-08</v>
+        <v>1.900029626366903e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.192187722220406e-08</v>
+        <v>7.236319254545107e-08</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5121951219512195</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5121951219512195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.64520190362354e-07</v>
+        <v>8.328450416485667e-08</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.632753512769e-07</v>
+        <v>1.107423391874922e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.384353176668913e-06</v>
+        <v>2.818803847251342e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1591,13 +1572,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.735106938101324e-06</v>
+        <v>5.731089779343662e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1606,17 +1587,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.391410047411768e-06</v>
+        <v>1.49639808162488e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2550335570469799</v>
+        <v>0.8</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2550335570469799</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
@@ -1625,269 +1606,269 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.50593039645859e-06</v>
+        <v>1.589320106847182e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.452876934218477e-05</v>
+        <v>4.221216644374392e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.875</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="E24" t="n">
-        <v>0.875</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0001634408714198428</v>
+        <v>4.393020931060861e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0009782769781299611</v>
+        <v>4.708801736841071e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.00493713595233677</v>
+        <v>0.0001194038555687458</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01128924588351319</v>
+        <v>0.0001212735082085432</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01313654239157295</v>
+        <v>0.01350594739230142</v>
       </c>
       <c r="D29" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E29" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02357924766814366</v>
+        <v>0.02612093312898973</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02401559990771822</v>
+        <v>0.03768589843951019</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Metabolite Repair</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02401559990771822</v>
+        <v>0.03832102289659155</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0.2134831460674157</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02575958896746971</v>
+        <v>0.1250515926271488</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2034632034632035</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2034632034632035</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1550700546188554</v>
+        <v>0.1800718839329362</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3203471137130094</v>
+        <v>0.7131537403747988</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.4103994685307151</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1851851851851852</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1895,51 +1876,32 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4743879600592545</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9596032657490291</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Murein Recycling</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.9988572200309859</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1985,7 +1947,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1993,254 +1955,254 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.704427761820375e-42</v>
+        <v>2.11273293853556e-76</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5760869565217391</v>
+        <v>0.7597765363128491</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5760869565217391</v>
+        <v>0.7597765363128491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.124512631820462e-16</v>
+        <v>3.138662020069598e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4951456310679612</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4951456310679612</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.543589048441638e-16</v>
+        <v>6.073646180370375e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5432098765432098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.883229292250742e-16</v>
+        <v>1.366101043533124e-15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.6415094339622641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9.163865578424401e-15</v>
+        <v>1.696461183468449e-15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4795918367346939</v>
+        <v>0.625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4795918367346939</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.592913695667873e-13</v>
+        <v>1.008635346276439e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.034722873231703e-12</v>
+        <v>1.121612181868082e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.176302502901457e-12</v>
+        <v>2.170089057227518e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.258415100305558e-12</v>
+        <v>7.73643007750444e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.530355971530534e-12</v>
+        <v>7.73643007750444e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.571932815080998e-11</v>
+        <v>1.102059136162654e-11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.292084105303366e-10</v>
+        <v>6.43305651028043e-11</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.222119254825943e-08</v>
+        <v>3.752224870257435e-10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4655172413793103</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4655172413793103</v>
+        <v>0.5853658536585366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.182836697139109e-08</v>
+        <v>8.703786132933929e-09</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -2259,7 +2221,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.182836697139109e-08</v>
+        <v>5.600813067471418e-08</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -2270,7 +2232,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2278,151 +2240,151 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.483825276846521e-08</v>
+        <v>4.238652685922387e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.689226576578771e-07</v>
+        <v>8.512107904060036e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.65</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.818873071659825e-07</v>
+        <v>2.279560049817967e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2770562770562771</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2770562770562771</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.840237244766968e-07</v>
+        <v>2.310224189932448e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4878048780487805</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4878048780487805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.79020422142186e-07</v>
+        <v>1.203008308711746e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.278883356147884e-05</v>
+        <v>1.224174773942646e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.396500204518274e-05</v>
+        <v>1.480640478831675e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238255033557047</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>0.238255033557047</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.300229871503919e-05</v>
+        <v>3.010505413651987e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2430,113 +2392,113 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.64594129556145e-05</v>
+        <v>0.0001139296631880774</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0001446921775629773</v>
+        <v>0.0001229375476846944</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7</v>
+        <v>0.2459677419354839</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7</v>
+        <v>0.2459677419354839</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0007747780596496529</v>
+        <v>0.0001483431348869137</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.48</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.004388981976575217</v>
+        <v>0.0001756716518051127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3246753246753247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.006330519988582206</v>
+        <v>0.0002598698657921564</v>
       </c>
       <c r="D29" t="n">
-        <v>0.375</v>
+        <v>0.2584269662921349</v>
       </c>
       <c r="E29" t="n">
-        <v>0.375</v>
+        <v>0.2584269662921349</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0104247193001843</v>
+        <v>0.0006061314309136629</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2544,7 +2506,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02314038958028148</v>
+        <v>0.02468266856795713</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -2555,64 +2517,64 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Metabolite Repair</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02314038958028148</v>
+        <v>0.153445150417884</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1123353363187056</v>
+        <v>0.1635776226538781</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1522203752077891</v>
+        <v>0.4821178923661819</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2620,88 +2582,69 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1854045650466885</v>
+        <v>0.745770051105122</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3940182255078475</v>
+        <v>0.856890317281334</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6595916156736665</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1388888888888889</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1388888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.956927524200615</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Murein Recycling</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/escherichia_coli/Omics_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/escherichia_coli/Omics_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_glu__L_e8.33_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_gly_e3.33_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_thr__L_e6.67_Presence" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_glu__L_e8.33" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_gly_e3.33" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_thr__L_e6.66" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -467,37 +467,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.452634618036325e-86</v>
+        <v>4.177335996661073e-35</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100558659217877</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8100558659217877</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.434858817307643e-19</v>
+        <v>2.644452797142522e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5555555555555556</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -505,56 +505,56 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.346335227566342e-18</v>
+        <v>1.005000077795777e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.942829561203017e-16</v>
+        <v>1.537091919039133e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9545454545454546</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.982294370221935e-16</v>
+        <v>2.041469048564413e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.660377358490566</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.660377358490566</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -562,70 +562,70 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.651247613881624e-16</v>
+        <v>8.719332125373817e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9166666666666666</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.815906241230926e-15</v>
+        <v>3.19615229056376e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7878787878787878</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7878787878787878</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.06918259146482e-15</v>
+        <v>1.258660091336561e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.625</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E9" t="n">
-        <v>0.625</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.441622135495139e-14</v>
+        <v>0.000117150557472181</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5308641975308642</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5308641975308642</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -634,150 +634,150 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.208407812016703e-13</v>
+        <v>0.0003168068471862367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5194805194805194</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Murein Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0003748206339453732</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="E12" t="n">
         <v>15</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1.29830271605826e-12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.29830271605826e-12</v>
+        <v>0.001006195905647336</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.525</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.29830271605826e-12</v>
+        <v>0.001701022587909553</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.954865538046844e-09</v>
+        <v>0.002201852499269651</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.227537275623023e-08</v>
+        <v>0.002945603979694493</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.634639936807074e-08</v>
+        <v>0.01007911282027065</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5365853658536586</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.630342651136007e-08</v>
+        <v>0.01253412044890904</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -786,368 +786,368 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.909000320400791e-07</v>
+        <v>0.03592929644152482</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.426125044329209e-06</v>
+        <v>0.05784426907355551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.937296418872397e-06</v>
+        <v>0.0715342018489301</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.155177095477477e-06</v>
+        <v>0.1647293636403392</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5600000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.748192130928754e-05</v>
+        <v>0.1935539112072101</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4358974358974359</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.682072743997205e-05</v>
+        <v>0.2253670070064976</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2540322580645161</v>
+        <v>0.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2540322580645161</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0001266149795596239</v>
+        <v>0.233008917336096</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0005287490121935783</v>
+        <v>0.3616317263225998</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6363636363636364</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.001040654706206581</v>
+        <v>0.453807910678834</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.291044776119403</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5333333333333333</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.005332470199241743</v>
+        <v>0.7539340399193886</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3529411764705883</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01384628902753966</v>
+        <v>0.9895606643899191</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02642891510809547</v>
+        <v>0.9996290407812678</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.04146941312376799</v>
+        <v>0.9999972302661364</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2134831460674157</v>
+        <v>0.1837349397590362</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2134831460674157</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0644064531596793</v>
+        <v>0.9999997984882145</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1263494662378778</v>
+        <v>0.9999998124269528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1836379369350184</v>
+        <v>0.999999999998509</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="E34" t="n">
-        <v>0.25</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.87335030987488</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.103448275862069</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.07716049382716049</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1157,7 +1157,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nitrogen Metabolism</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,7 +1241,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1211,37 +1249,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.087928447781611e-84</v>
+        <v>3.902060658646019e-36</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7988826815642458</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7988826815642458</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.372344155595866e-19</v>
+        <v>2.303927306096845e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5454545454545454</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1249,184 +1287,184 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.935855029909509e-18</v>
+        <v>2.916157336609939e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.160637416374636e-16</v>
+        <v>1.438354038623101e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8181818181818182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.291443635123503e-16</v>
+        <v>6.024236325619492e-09</v>
       </c>
       <c r="D6" t="n">
-        <v>0.660377358490566</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="E6" t="n">
-        <v>0.660377358490566</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.847933119778008e-16</v>
+        <v>2.400889281817839e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9166666666666666</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.203559197183681e-15</v>
+        <v>3.066769285430075e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.625</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.080507381432659e-13</v>
+        <v>0.0001127271797358665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5061728395061729</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5061728395061729</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.188030064050013e-12</v>
+        <v>0.0003028695451739138</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.188030064050013e-12</v>
+        <v>0.0003601995126364794</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.188030064050013e-12</v>
+        <v>0.0009556003024706312</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Threonine and Lysine Metabolism</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001521330823492825</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="E13" t="n">
         <v>19</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Citric Acid Cycle</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1.809345277611251e-11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="14">
@@ -1435,17 +1473,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.612483395901914e-11</v>
+        <v>0.00157841230174295</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6097560975609756</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1454,307 +1492,307 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.157260004534582e-08</v>
+        <v>0.002146401882138933</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.900029626366903e-08</v>
+        <v>0.009237581514104472</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4285714285714285</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.236319254545107e-08</v>
+        <v>0.01220910762765804</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.328450416485667e-08</v>
+        <v>0.0352316527863909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.107423391874922e-07</v>
+        <v>0.05703465230232828</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.818803847251342e-06</v>
+        <v>0.05703465230232828</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.731089779343662e-06</v>
+        <v>0.06935886365141529</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5600000000000001</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.49639808162488e-05</v>
+        <v>0.07073527754603325</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.589320106847182e-05</v>
+        <v>0.07814319336731958</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6666666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.221216644374392e-05</v>
+        <v>0.07814319336731958</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2580645161290323</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.393020931060861e-05</v>
+        <v>0.1627825078924616</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4358974358974359</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.708801736841071e-05</v>
+        <v>0.3170594046903736</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7272727272727273</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0001194038555687458</v>
+        <v>0.3264550675093258</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0001212735082085432</v>
+        <v>0.4189024218698006</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6666666666666666</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01350594739230142</v>
+        <v>0.4416369085763585</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5</v>
+        <v>0.291044776119403</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02612093312898973</v>
+        <v>0.9979720200255345</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1762,113 +1800,113 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.03768589843951019</v>
+        <v>0.9980525965526649</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2941176470588235</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.03832102289659155</v>
+        <v>0.9999933090549563</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2134831460674157</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2134831460674157</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1250515926271488</v>
+        <v>0.9999997977343006</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1800718839329362</v>
+        <v>0.9999999991307806</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="E34" t="n">
-        <v>0.25</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7131537403747988</v>
+        <v>0.9999999999999669</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1379310344827586</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1882,26 +1920,64 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nitrogen Metabolism</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1947,7 +2023,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1955,222 +2031,222 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.11273293853556e-76</v>
+        <v>4.953145639386862e-36</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7597765363128491</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7597765363128491</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.138662020069598e-16</v>
+        <v>6.16701485270427e-15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9166666666666666</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.073646180370375e-16</v>
+        <v>2.840218861388176e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5432098765432098</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5432098765432098</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.366101043533124e-15</v>
+        <v>4.021037266261487e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6415094339622641</v>
+        <v>0.84</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6415094339622641</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.696461183468449e-15</v>
+        <v>3.427793027790458e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625</v>
+        <v>0.9375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.008635346276439e-14</v>
+        <v>1.489779530763258e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4848484848484849</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4848484848484849</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.121612181868082e-14</v>
+        <v>2.067786117239401e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9090909090909091</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.170089057227518e-14</v>
+        <v>4.463464965068007e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.575</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7575757575757576</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.73643007750444e-13</v>
+        <v>0.000195682403563015</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.73643007750444e-13</v>
+        <v>0.0002460644056356736</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.102059136162654e-11</v>
+        <v>0.0003476585209051788</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8181818181818182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.43305651028043e-11</v>
+        <v>0.000678795666309634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9333333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -2179,212 +2255,212 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.752224870257435e-10</v>
+        <v>0.0007607742690504731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5853658536585366</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.703786132933929e-09</v>
+        <v>0.001039269680393019</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.600813067471418e-08</v>
+        <v>0.001544258187657555</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.238652685922387e-07</v>
+        <v>0.005390887908528706</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.512107904060036e-07</v>
+        <v>0.005707166617169939</v>
       </c>
       <c r="D18" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.279560049817967e-06</v>
+        <v>0.009486140483365409</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8181818181818182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.310224189932448e-06</v>
+        <v>0.04983015248522543</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.203008308711746e-05</v>
+        <v>0.04983015248522543</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.224174773942646e-05</v>
+        <v>0.06353215463546867</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.480640478831675e-05</v>
+        <v>0.06719145206329499</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5416666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.010505413651987e-05</v>
+        <v>0.1433694697850163</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4358974358974359</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2392,151 +2468,151 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0001139296631880774</v>
+        <v>0.3233465839420369</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0001229375476846944</v>
+        <v>0.3753073073139839</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2459677419354839</v>
+        <v>0.375</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2459677419354839</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0001483431348869137</v>
+        <v>0.4591845314337145</v>
       </c>
       <c r="D27" t="n">
-        <v>0.48</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0001756716518051127</v>
+        <v>0.5713379358340012</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3246753246753247</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0002598698657921564</v>
+        <v>0.6406873664060805</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2584269662921349</v>
+        <v>0.2611940298507462</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2584269662921349</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0006061314309136629</v>
+        <v>0.9502516307631982</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02468266856795713</v>
+        <v>0.9674232863632189</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.153445150417884</v>
+        <v>0.9993727594364125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2352941176470588</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2544,108 +2620,146 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1635776226538781</v>
+        <v>0.9999995935156075</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.4821178923661819</v>
+        <v>0.9999997886334522</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2</v>
+        <v>0.1626506024096386</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.745770051105122</v>
+        <v>0.9999998290577714</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="E35" t="n">
-        <v>0.125</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.856890317281334</v>
+        <v>0.9999999999989417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103448275862069</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103448275862069</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0.999999999999526</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="E38" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nitrogen Metabolism</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
